--- a/admin_data/history/history.xlsx
+++ b/admin_data/history/history.xlsx
@@ -1,14 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Слава\Desktop\1.Development\_for_github\Python\ExportIFCfromRevit\admin_data\history\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC418CE-C832-475C-A311-9BE06C5C5F05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE566975-8445-4400-A45A-CA04EB2A1305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,10 +17,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Путь_до_файла</t>
+    <t>Дата модификации файла</t>
   </si>
   <si>
-    <t>ДатаВремя</t>
+    <t>Файл RVT (полный путь)</t>
   </si>
 </sst>
 </file>
@@ -33,7 +28,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -46,10 +41,9 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -87,15 +81,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -111,6 +110,17 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="HistoryTable" displayName="HistoryTable" ref="A1:B2" insertRow="1">
+  <autoFilter ref="A1:B2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Файл RVT (полный путь)"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Дата модификации файла"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -376,303 +386,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B93"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="150.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="40.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="150" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.77734375" style="1" customWidth="1"/>
     <col min="3" max="6" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
       <c r="B2" s="3"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B3" s="3"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B5" s="3"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B7" s="3"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B8" s="3"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B9" s="3"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B10" s="3"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B11" s="3"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B12" s="3"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B13" s="3"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B14" s="3"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B15" s="3"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="3"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="3"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="3"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="3"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" s="3"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" s="3"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24" s="3"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25" s="3"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B26" s="3"/>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B27" s="3"/>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B28" s="3"/>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B29" s="3"/>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B30" s="3"/>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B31" s="3"/>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B32" s="3"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B33" s="3"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B34" s="3"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B35" s="3"/>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B36" s="3"/>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B37" s="3"/>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B38" s="3"/>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B39" s="3"/>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B40" s="3"/>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B41" s="3"/>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B42" s="3"/>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B43" s="3"/>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B44" s="3"/>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B45" s="3"/>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B46" s="3"/>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B47" s="3"/>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B48" s="3"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B49" s="3"/>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B50" s="3"/>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B51" s="3"/>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B52" s="3"/>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B53" s="3"/>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B54" s="3"/>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B55" s="3"/>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B56" s="3"/>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B57" s="3"/>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B58" s="3"/>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B59" s="3"/>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B60" s="3"/>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B61" s="3"/>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B62" s="3"/>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B63" s="3"/>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B64" s="3"/>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B65" s="3"/>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B66" s="3"/>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B67" s="3"/>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B68" s="3"/>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B69" s="3"/>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B70" s="3"/>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B71" s="3"/>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B72" s="3"/>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B73" s="3"/>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B74" s="3"/>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B75" s="3"/>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B76" s="3"/>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B77" s="3"/>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B78" s="3"/>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B79" s="3"/>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B80" s="3"/>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B81" s="3"/>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B82" s="3"/>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B83" s="3"/>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B84" s="3"/>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B85" s="3"/>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B86" s="3"/>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B87" s="3"/>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B88" s="3"/>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B89" s="3"/>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B90" s="3"/>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B91" s="3"/>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B92" s="3"/>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B93" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>